--- a/Auto_SPH10000TL-HU.xlsx
+++ b/Auto_SPH10000TL-HU.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,130 @@
   </si>
   <si>
     <t>意大利、英语、德语、西班牙语、法语、汉语、波兰语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置项精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充放电管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池设置1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂电池、铅酸电池、SOC型铅酸、无电池模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46.1,56.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池浮充电电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池恒压充电电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池均衡充电电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均衡充几天执行一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均衡充执行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度补偿值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安规开关使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率下垂功能开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q(v)功能开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压下垂功能开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能高低电压穿越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能高低频率穿越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注(手动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +247,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -149,9 +288,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -434,191 +582,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="23.75" customWidth="1" collapsed="1"/>
     <col min="11" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="29.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <f t="shared" ref="A2:A4" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f t="shared" ref="A2:A17" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2">
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1">
         <v>-1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>-1</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="N2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4">
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1">
         <v>-1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>-1</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>-1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10024</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10025</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10026</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10027</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10028</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10029</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10113</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>10122</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10129</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10132</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>10143</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
